--- a/Resources/google-project-sunroof/metadataReformat.xlsx
+++ b/Resources/google-project-sunroof/metadataReformat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agrat\Desktop\Group Project\Resources\google-project-sunroof\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAC1FB7-7F5E-403D-B8DA-D0DAA331C818}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26957AE5-286B-4953-849A-18BB18E22074}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -745,8 +745,36 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{EE6EA556-0585-4ED1-88F2-52C5FCBE09C8}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
